--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -676,13 +676,13 @@
         <v>13.5</v>
       </c>
       <c r="I2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.27</v>
@@ -724,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>180</v>
@@ -739,7 +739,7 @@
         <v>16.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>360</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -667,67 +667,67 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="H2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="U2" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -742,7 +742,7 @@
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="AF2" t="n">
         <v>8.4</v>
@@ -751,10 +751,10 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -763,13 +763,13 @@
         <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -946,10 +946,10 @@
         <v>1.86</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -670,28 +670,28 @@
         <v>1.31</v>
       </c>
       <c r="G2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K2" t="n">
         <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
@@ -700,28 +700,28 @@
         <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
         <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE2" t="n">
         <v>280</v>
@@ -748,7 +748,7 @@
         <v>8.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>270</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="G4" t="n">
         <v>2.18</v>
       </c>
       <c r="H4" t="n">
-        <v>1.86</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G2" t="n">
         <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
         <v>12.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K2" t="n">
         <v>6.2</v>
@@ -718,7 +718,7 @@
         <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="X2" t="n">
         <v>19.5</v>
@@ -940,16 +940,16 @@
         <v>1.87</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
         <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>3.9</v>
@@ -970,7 +970,7 @@
         <v>1.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -679,13 +679,13 @@
         <v>12.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -700,34 +700,34 @@
         <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>2.26</v>
       </c>
       <c r="U2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
         <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,16 +736,16 @@
         <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE2" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,16 +670,16 @@
         <v>1.32</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I2" t="n">
         <v>12.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K2" t="n">
         <v>6.4</v>
@@ -697,10 +697,10 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
         <v>1.42</v>
@@ -718,10 +718,10 @@
         <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -736,10 +736,10 @@
         <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AE2" t="n">
         <v>260</v>
@@ -751,25 +751,25 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
         <v>210</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.04</v>
       </c>
-      <c r="G3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="U3" t="n">
         <v>1.04</v>
       </c>
-      <c r="I3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K3" t="n">
-        <v>950</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,652 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.87</v>
+        <v>1.28</v>
       </c>
       <c r="G4" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.55</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="G2" t="n">
         <v>1.37</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
         <v>12.5</v>
@@ -682,25 +682,25 @@
         <v>5.6</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
         <v>1.42</v>
@@ -712,73 +712,73 @@
         <v>2.26</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE2" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM2" t="n">
         <v>260</v>
       </c>
-      <c r="AF2" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>280</v>
-      </c>
       <c r="AN2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,72 +923,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.48</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.92</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.3</v>
       </c>
-      <c r="G5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.04</v>
-      </c>
       <c r="I5" t="n">
-        <v>2.12</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.89</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.93</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2.28</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>2.22</v>
       </c>
       <c r="J6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.45</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>2.76</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.06</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.84</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.81</v>
       </c>
       <c r="W6" t="n">
-        <v>1.78</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
         <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO6" t="n">
         <v>980</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1333,40 +1333,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="G7" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1375,13 +1375,13 @@
         <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
         <v>1.83</v>
@@ -1390,37 +1390,37 @@
         <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
@@ -1441,147 +1441,282 @@
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
         <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2025-11-19</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Junior FC Barranquilla</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="F9" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.95</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.05</v>
       </c>
-      <c r="N8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="N9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.3</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.85</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R9" t="n">
         <v>1.37</v>
       </c>
-      <c r="S8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO8" t="n">
+      <c r="S9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.35</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.37</v>
       </c>
       <c r="H2" t="n">
         <v>11</v>
@@ -679,10 +679,10 @@
         <v>12.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -691,37 +691,37 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
         <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,28 +733,28 @@
         <v>620</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE2" t="n">
         <v>250</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
         <v>38</v>
       </c>
       <c r="AI2" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>10.5</v>
@@ -763,13 +763,13 @@
         <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
         <v>260</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO2" t="n">
         <v>360</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
         <v>6.6</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H4" t="n">
         <v>2.68</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.94</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -985,10 +985,10 @@
         <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="n">
         <v>4.3</v>
@@ -1084,19 +1084,19 @@
         <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1105,7 +1105,7 @@
         <v>1.57</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
         <v>1.2</v>
@@ -1123,10 +1123,10 @@
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1150,10 +1150,10 @@
         <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
         <v>2.76</v>
       </c>
       <c r="O6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V6" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="W6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1345,19 +1345,19 @@
         <v>2.22</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1366,19 +1366,19 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q7" t="n">
         <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
         <v>3.7</v>
@@ -1390,16 +1390,16 @@
         <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
         <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
@@ -1414,7 +1414,7 @@
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
@@ -1480,7 +1480,7 @@
         <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H8" t="n">
         <v>3.45</v>
@@ -1492,55 +1492,55 @@
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.47</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q8" t="n">
         <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X8" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y8" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>14</v>
-      </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
         <v>9</v>
@@ -1549,16 +1549,16 @@
         <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
@@ -1567,19 +1567,19 @@
         <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
         <v>65</v>
@@ -1615,16 +1615,16 @@
         <v>2.46</v>
       </c>
       <c r="G9" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
         <v>2.84</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>3.95</v>
@@ -1633,25 +1633,25 @@
         <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="T9" t="n">
         <v>1.68</v>
@@ -1660,10 +1660,10 @@
         <v>2.16</v>
       </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -691,25 +691,25 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
         <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U2" t="n">
         <v>1.69</v>
@@ -724,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="n">
         <v>120</v>
@@ -751,7 +751,7 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>6.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
@@ -958,7 +958,7 @@
         <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>3.2</v>
@@ -970,7 +970,7 @@
         <v>1.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
         <v>1.34</v>
@@ -979,7 +979,7 @@
         <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
         <v>2.12</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G5" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K5" t="n">
         <v>3.45</v>
@@ -1105,7 +1105,7 @@
         <v>1.57</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R5" t="n">
         <v>1.2</v>
@@ -1114,13 +1114,13 @@
         <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
         <v>1.92</v>
@@ -1129,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
         <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.55</v>
@@ -1231,28 +1231,28 @@
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P6" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="V6" t="n">
         <v>1.86</v>
@@ -1261,16 +1261,16 @@
         <v>1.28</v>
       </c>
       <c r="X6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z6" t="n">
         <v>12</v>
       </c>
-      <c r="Y6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB6" t="n">
         <v>12.5</v>
@@ -1294,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
         <v>130</v>
@@ -1303,7 +1303,7 @@
         <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
         <v>210</v>
@@ -1312,7 +1312,7 @@
         <v>120</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1348,16 +1348,16 @@
         <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1366,10 +1366,10 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
         <v>1.84</v>
@@ -1381,10 +1381,10 @@
         <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
         <v>2.04</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
         <v>3.45</v>
@@ -1492,7 +1492,7 @@
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
         <v>1.47</v>
@@ -1501,34 +1501,34 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
         <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1561,7 +1561,7 @@
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
@@ -1570,7 +1570,7 @@
         <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
@@ -1582,7 +1582,7 @@
         <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1615,13 +1615,13 @@
         <v>2.46</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="H9" t="n">
         <v>2.84</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
@@ -1636,7 +1636,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
@@ -1645,13 +1645,13 @@
         <v>1.96</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
         <v>1.68</v>
@@ -1660,10 +1660,10 @@
         <v>2.16</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.33</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
-        <v>1.35</v>
+        <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>2.82</v>
       </c>
       <c r="I2" t="n">
-        <v>12.5</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>2.74</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>1.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>5.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="W2" t="n">
-        <v>3.85</v>
+        <v>1.46</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>38</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>620</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>46</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.5</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.4</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="n">
-        <v>410</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.5</v>
       </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.52</v>
+        <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>10.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S4" t="n">
         <v>3.2</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.96</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>2.34</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>3.65</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R5" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.06</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.16</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.52</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.28</v>
-      </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.2</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>28</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>5.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC7" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>260</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,255 +1468,525 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>4.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>2.18</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>2.84</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.85</v>
       </c>
       <c r="W8" t="n">
-        <v>1.72</v>
+        <v>1.28</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO8" t="n">
         <v>26</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2025-11-19</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Junior FC Barranquilla</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F11" t="n">
         <v>2.46</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G11" t="n">
         <v>2.82</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>2.84</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>3.3</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J11" t="n">
         <v>3.3</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K11" t="n">
         <v>3.95</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L11" t="n">
         <v>1.39</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M11" t="n">
         <v>1.06</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N11" t="n">
         <v>3.35</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O11" t="n">
         <v>1.3</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P11" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q11" t="n">
         <v>1.76</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="R11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.68</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U11" t="n">
         <v>2.16</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V11" t="n">
         <v>1.43</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W11" t="n">
         <v>1.55</v>
       </c>
-      <c r="X9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
         <v>14</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC11" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM9" t="n">
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
         <v>110</v>
       </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G2" t="n">
         <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
         <v>2.9</v>
@@ -688,31 +688,31 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="O2" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
         <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V2" t="n">
         <v>1.46</v>
@@ -721,46 +721,46 @@
         <v>1.46</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="AK2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>60</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>2.86</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
       <c r="I3" t="n">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.06</v>
+        <v>2.92</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P3" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q3" t="n">
         <v>2.12</v>
@@ -841,7 +841,7 @@
         <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.05</v>
@@ -850,64 +850,64 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>260</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>42</v>
       </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H4" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.36</v>
@@ -961,88 +961,88 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
         <v>2.34</v>
       </c>
       <c r="U4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AA4" t="n">
-        <v>590</v>
+        <v>700</v>
       </c>
       <c r="AB4" t="n">
         <v>7.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AE4" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
         <v>260</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AO4" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
@@ -1075,13 +1075,13 @@
         <v>1.89</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
@@ -1105,7 +1105,7 @@
         <v>1.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1237,7 +1237,7 @@
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
         <v>1.89</v>
@@ -1264,13 +1264,13 @@
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G7" t="n">
         <v>2.12</v>
@@ -1351,46 +1351,46 @@
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
         <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
         <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
         <v>1.89</v>
@@ -1405,22 +1405,22 @@
         <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
         <v>260</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AG7" t="n">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>130</v>
+        <v>470</v>
       </c>
       <c r="AJ7" t="n">
         <v>130</v>
@@ -1486,13 +1486,13 @@
         <v>2.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.55</v>
@@ -1501,31 +1501,31 @@
         <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P8" t="n">
         <v>1.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R8" t="n">
         <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T8" t="n">
         <v>2.16</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V8" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W8" t="n">
         <v>1.28</v>
@@ -1534,7 +1534,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
         <v>11.5</v>
@@ -1576,7 +1576,7 @@
         <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
         <v>110</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1636,88 +1636,88 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
         <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
         <v>3.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
         <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
         <v>3.6</v>
@@ -1762,7 +1762,7 @@
         <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
         <v>1.47</v>
@@ -1771,58 +1771,58 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
         <v>2.12</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
         <v>3.95</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
         <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
         <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="n">
         <v>14.5</v>
@@ -1831,28 +1831,28 @@
         <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
         <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H11" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.39</v>
@@ -1912,16 +1912,16 @@
         <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
         <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
         <v>1.68</v>
@@ -1930,10 +1930,10 @@
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1963,7 +1963,7 @@
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -1981,7 +1981,7 @@
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
         <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
         <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -694,13 +694,13 @@
         <v>2.68</v>
       </c>
       <c r="O2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
         <v>1.21</v>
@@ -709,31 +709,31 @@
         <v>5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
         <v>7.4</v>
@@ -751,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,67 +802,67 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G3" t="n">
         <v>2.86</v>
       </c>
       <c r="H3" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.43</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="R3" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="n">
         <v>900</v>
@@ -889,25 +889,25 @@
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ3" t="n">
         <v>200</v>
       </c>
       <c r="AK3" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AL3" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -940,79 +940,79 @@
         <v>1.31</v>
       </c>
       <c r="G4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H4" t="n">
         <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
         <v>2.34</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>38</v>
       </c>
       <c r="Z4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>700</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
         <v>48</v>
       </c>
       <c r="AE4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AF4" t="n">
         <v>7</v>
@@ -1021,10 +1021,10 @@
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.6</v>
@@ -1033,16 +1033,16 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="G5" t="n">
         <v>1.99</v>
@@ -1081,13 +1081,13 @@
         <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="G6" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
         <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="W6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,40 +1342,40 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.55</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.56</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
@@ -1384,22 +1384,22 @@
         <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X7" t="n">
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1414,16 +1414,16 @@
         <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="n">
         <v>260</v>
       </c>
       <c r="AF7" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1432,10 +1432,10 @@
         <v>470</v>
       </c>
       <c r="AJ7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1477,40 +1477,40 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="I8" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O8" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
         <v>1.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
         <v>1.21</v>
@@ -1519,28 +1519,28 @@
         <v>5.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="W8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB8" t="n">
         <v>12</v>
@@ -1552,37 +1552,37 @@
         <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
       </c>
       <c r="AJ8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL8" t="n">
         <v>110</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>100</v>
       </c>
       <c r="AM8" t="n">
         <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1615,10 @@
         <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
         <v>3.7</v>
@@ -1636,40 +1636,40 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
         <v>25</v>
@@ -1678,7 +1678,7 @@
         <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
@@ -1687,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
         <v>13.5</v>
@@ -1696,28 +1696,28 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
         <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1753,49 +1753,49 @@
         <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.6</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.12</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W10" t="n">
         <v>1.74</v>
@@ -1807,52 +1807,52 @@
         <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
         <v>65</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="n">
         <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN10" t="n">
         <v>20</v>
       </c>
-      <c r="AI10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>23</v>
-      </c>
       <c r="AO10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
         <v>1.39</v>
@@ -1906,22 +1906,22 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="R11" t="n">
         <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T11" t="n">
         <v>1.68</v>
@@ -1930,10 +1930,10 @@
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1981,7 +1981,7 @@
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>2.36</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K2" t="n">
         <v>3.35</v>
@@ -691,19 +691,19 @@
         <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="R2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -715,52 +715,52 @@
         <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="W2" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ2" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,91 +802,91 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="G3" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="H3" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
         <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
         <v>160</v>
@@ -895,19 +895,19 @@
         <v>200</v>
       </c>
       <c r="AK3" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -949,85 +949,85 @@
         <v>13.5</v>
       </c>
       <c r="J4" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
         <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA4" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AF4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
@@ -1036,13 +1036,13 @@
         <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.93</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.99</v>
-      </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>2.58</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="H6" t="n">
         <v>2.74</v>
       </c>
       <c r="I6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.1</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
         <v>1.43</v>
@@ -1231,10 +1231,10 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
         <v>1.92</v>
@@ -1243,22 +1243,22 @@
         <v>1.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
         <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
@@ -1375,10 +1375,10 @@
         <v>1.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S7" t="n">
         <v>5.3</v>
@@ -1387,13 +1387,13 @@
         <v>2.18</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="X7" t="n">
         <v>11</v>
@@ -1411,10 +1411,10 @@
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
         <v>260</v>
@@ -1423,7 +1423,7 @@
         <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1435,7 +1435,7 @@
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="I8" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="J8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.35</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M8" t="n">
         <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
         <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T8" t="n">
         <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="W8" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X8" t="n">
         <v>9</v>
@@ -1537,10 +1537,10 @@
         <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
         <v>12</v>
@@ -1552,13 +1552,13 @@
         <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
@@ -1567,22 +1567,22 @@
         <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
         <v>120</v>
       </c>
       <c r="AO8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="G9" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.6</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1636,88 +1636,88 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
         <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="n">
         <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>25</v>
       </c>
-      <c r="AA9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>29</v>
-      </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.3</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.34</v>
-      </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1774,37 +1774,37 @@
         <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="n">
         <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
         <v>3.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U10" t="n">
         <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
         <v>25</v>
@@ -1813,19 +1813,19 @@
         <v>65</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -1837,10 +1837,10 @@
         <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
         <v>40</v>
@@ -1849,10 +1849,10 @@
         <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
         <v>3.9</v>
@@ -1912,28 +1912,28 @@
         <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
         <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -667,91 +667,91 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="J2" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="R2" t="n">
         <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
         <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>130</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
         <v>16.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>190</v>
@@ -763,7 +763,7 @@
         <v>220</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>2.92</v>
+        <v>3.65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.98</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.1</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="W3" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
         <v>400</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AK3" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -937,52 +937,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
         <v>5.9</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V4" t="n">
         <v>1.08</v>
@@ -991,58 +991,58 @@
         <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE4" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
@@ -1075,31 +1075,31 @@
         <v>1.87</v>
       </c>
       <c r="G5" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P5" t="n">
         <v>1.59</v>
@@ -1108,76 +1108,76 @@
         <v>2.58</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -1210,55 +1210,55 @@
         <v>2.58</v>
       </c>
       <c r="G6" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="H6" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W6" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1270,7 +1270,7 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1282,7 +1282,7 @@
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
@@ -1291,16 +1291,16 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="O7" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="P7" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W7" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="n">
         <v>260</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="n">
         <v>470</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="I8" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.3</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="W8" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
         <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
         <v>18.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="n">
         <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AN8" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W10" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>44</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
         <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1885,55 +1885,55 @@
         <v>2.58</v>
       </c>
       <c r="G11" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="V11" t="n">
         <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1963,7 +1963,7 @@
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -1975,16 +1975,16 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="I2" t="n">
-        <v>2.76</v>
+        <v>2.44</v>
       </c>
       <c r="J2" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
         <v>2.72</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="AL2" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>600</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.65</v>
+        <v>5.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>1.77</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>1.81</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="V3" t="n">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
         <v>16</v>
       </c>
-      <c r="AA3" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>11</v>
-      </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE3" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AK3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO3" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="G4" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AA4" t="n">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="AB4" t="n">
         <v>7.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="n">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="AF4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
         <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
@@ -1096,88 +1096,88 @@
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="O5" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="P5" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
         <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
         <v>2.82</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.45</v>
@@ -1231,13 +1231,13 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
         <v>2.02</v>
@@ -1246,31 +1246,31 @@
         <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
         <v>1.48</v>
       </c>
       <c r="W6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1279,34 +1279,34 @@
         <v>14</v>
       </c>
       <c r="AD6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE6" t="n">
         <v>1000</v>
       </c>
-      <c r="AE6" t="n">
-        <v>90</v>
-      </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="n">
         <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
         <v>5.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.52</v>
@@ -1366,25 +1366,25 @@
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
         <v>4.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
         <v>1.79</v>
@@ -1393,31 +1393,31 @@
         <v>1.24</v>
       </c>
       <c r="W7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="n">
         <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>150</v>
       </c>
       <c r="AB7" t="n">
         <v>7.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
@@ -1429,19 +1429,19 @@
         <v>85</v>
       </c>
       <c r="AI7" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
         <v>150</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>22</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.2</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="P8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="W8" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
         <v>18.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="n">
         <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
         <v>15</v>
       </c>
-      <c r="Y9" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN9" t="n">
         <v>18</v>
       </c>
-      <c r="AI9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1747,76 +1747,76 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="G10" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W10" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>15</v>
@@ -1825,34 +1825,34 @@
         <v>44</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO10" t="n">
         <v>36</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="G11" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
         <v>1.38</v>
@@ -1906,88 +1906,88 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
         <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO11" t="n">
         <v>24</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.9</v>
+        <v>1.81</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>2.44</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="L2" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.37</v>
       </c>
       <c r="N2" t="n">
-        <v>2.72</v>
+        <v>1.51</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>2.92</v>
       </c>
       <c r="P2" t="n">
-        <v>1.54</v>
+        <v>1.09</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.68</v>
+        <v>11</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
-        <v>5.6</v>
+        <v>36</v>
       </c>
       <c r="T2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W2" t="n">
         <v>2.1</v>
       </c>
-      <c r="U2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.3</v>
-      </c>
       <c r="X2" t="n">
-        <v>8.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
         <v>7.6</v>
       </c>
-      <c r="Z2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>350</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>28</v>
       </c>
-      <c r="AG2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>110</v>
-      </c>
       <c r="AK2" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AL2" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>95</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>2.22</v>
       </c>
       <c r="G3" t="n">
-        <v>5.3</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
-        <v>1.77</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.81</v>
+        <v>8.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>2.34</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.23</v>
-      </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>80</v>
-      </c>
       <c r="AL3" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>360</v>
       </c>
       <c r="AN3" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="G4" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="I4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
         <v>4.3</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="X4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>690</v>
       </c>
       <c r="AD4" t="n">
-        <v>38</v>
+        <v>880</v>
       </c>
       <c r="AE4" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.2</v>
+        <v>690</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.39</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>12.5</v>
       </c>
       <c r="I5" t="n">
+        <v>14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.92</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.49</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>1.63</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.52</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>2.22</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>2.16</v>
+        <v>3.65</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>6.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI5" t="n">
         <v>110</v>
       </c>
-      <c r="AF5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM5" t="n">
         <v>200</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>230</v>
-      </c>
       <c r="AN5" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="G6" t="n">
-        <v>2.82</v>
+        <v>3.95</v>
       </c>
       <c r="H6" t="n">
-        <v>2.82</v>
+        <v>2.34</v>
       </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>2.36</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="O6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.33</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.55</v>
-      </c>
       <c r="X6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>90</v>
       </c>
-      <c r="Y6" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>130</v>
-      </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="H7" t="n">
         <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>36</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK7" t="n">
         <v>21</v>
       </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>75</v>
-      </c>
       <c r="AL7" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.85</v>
       </c>
-      <c r="G8" t="n">
+      <c r="K8" t="n">
         <v>3.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>2.52</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.92</v>
+        <v>1.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>2.44</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>1.66</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.72</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.34</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>7.4</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AH8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>23</v>
       </c>
-      <c r="AG8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>85</v>
-      </c>
       <c r="AK8" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
-        <v>130</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,396 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>2.94</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="X9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB9" t="n">
         <v>13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN9" t="n">
         <v>21</v>
       </c>
-      <c r="AL9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>18</v>
-      </c>
       <c r="AO9" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-11-19</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Gremio</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Vasco da Gama</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-11-19</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
